--- a/Design/Player System/EmotionSystem/思绪.xlsx
+++ b/Design/Player System/EmotionSystem/思绪.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25427"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\l\Desktop\desktop\programming\Unity\Shooter\Design\Player System\EmotionSystem\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0919B30D-1342-4F88-80AF-0276D4DA4629}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17861DC4-E426-4B04-AEFB-EA05748F455F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-109" yWindow="-109" windowWidth="23452" windowHeight="12682" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="60">
   <si>
     <t>名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -256,6 +256,14 @@
   </si>
   <si>
     <t>爆炸伤害-1.5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>冲刺产生四枚跟踪弹</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>能量消耗速度-10%</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -299,8 +307,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -581,10 +590,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L32"/>
+  <dimension ref="A1:L34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C33" sqref="C33"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="E35" sqref="E35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.95" x14ac:dyDescent="0.25"/>
@@ -828,6 +837,22 @@
         <v>57</v>
       </c>
     </row>
+    <row r="33" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C33" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="34" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C34" t="s">
+        <v>59</v>
+      </c>
+      <c r="D34" s="1">
+        <v>-0.25</v>
+      </c>
+      <c r="E34" s="1">
+        <v>-0.5</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
